--- a/home/home_2.xlsx
+++ b/home/home_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>머물자리론</t>
+          <t>취업연수생</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -446,52 +446,24 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>담당부서</t>
+          <t>사업문의</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>목돈 마련이 어려운 청년의 안정적인 주거지원을 위해 임차보증금 대출과 이자를 지원하여
-        청년의 주거생활 안정에 기여</t>
+          <t>부산 거주 미취업 청년을 대상으로 공공기관 등에서 일정 기간의취업연수생 활동을 통한 행정체험 및 취업지원</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>사업기간 :'23. 2월 ~ 사업비 소진 시까지신청기간 :매월 1일 09:00 ~ 10일 18:00지원대상 :부산시 주민등록이 되어 있는 만19~34세 무주택 청년(신혼부부 제외)소득기준 : 본인(부부합산) 연소득 4천만원 이하※ 소득심사는 협약은행에서 별도 실시대상주택 : 임차보증금 2억원 이하이면서 전월세전환율 6.1%이하※ 건축물 대장상 주택이 아닌 곳은 불가※ 아파트를 제외한 주택유형의 경우 임대인이 신청일 기준 해당 주택 소유기간 3개월 미만인 경우, 보증신청 불가 등 협약은행 내규에 따라 협약은행에서 추가 심사 실시지원내용 :대출이자 연 2.0% 부산시 지원대출금리, 시 지원금리, 본인 부담금리에 대한 표대출금리시 지원금리본인 부담금리비고4.0%2.0%2.0%3.5%2.0%1.5%대출신청일 10.1. 이후대출취급은행 : 부산은행대출최대한도 : 1억원 이내(임차보증금의 90% 범위 내 → 나머지 본인 부담)* 실제 대출가능금액은 금융기관(한국주택금융공사, 부산은행) 제 규정에 따라 다르며, 부산시 자격요건에 해당되어 선정되더라도 부산은행과 한국주택금융공사에서 대출(보증)심사 및 신용평가, 소득심사는 별도 실시하며 그 결과에 따라 제외될 수 있음사업절차계약체결주택계약신청자신청 및 접수부산청년플랫폼  온라인 신청(매월 1~10일)신청자대상자 선정부산시 청년희망정책과(심사)부산시대상자 추천통보선정자, 부산은행 알림(매월말)부산시대출신청관련서류 부산은행 제출신청자대출실행 및 이차보전대출자격 평가 후 대출실행, 이차보전부산은행, 부산시월별 접수계획←→ 표를 가로로 스크롤 해주세요구분, 2월, 3월, 4월, 5월, 6월, 7월, 8월, 9월, 10월, 11월 접수계획에 대한 표구분2월3월4월5월6월신청기간2.1.~2.10.3.1.~3.10.4.1.~4.10.5.1.~5.10.6.1.~6.10.7월8월9월10월11월12월7.1.~7.10.8.1.~8.10.9.1.~9.10.10.1.~10.10.11.1.~11.10.12.1.~12.10.※ 유의사항12월 신청자에 대한 선정자 발표는 2024. 1. 5.(금) 예정신청시기 안내* 신규임차계약 : 잔금일 2024. 1. 15. ~ 2024. 1. 30.* 신규임차계약(대환) : 빠른날(잔금일, 전입일 중) 2023.10.16 ~ 2023.12.10* 갱신임차계약(대환) : 계약갱신일 2023.10.16 ~ 2023.12.10신청기간에는 주말·공휴일 관계없이 접수 가능공고문 유형별 신청시기(p4~5)를 반드시 참고해서 해당 월에 신청상기 신청기간은 사업비 소진에 따라 조기마감 될 수 있음</t>
+          <t>지원자격:부산에 거주하는 만29세이하 고졸 이상(졸업예정자 포함) 미취업자로서, 졸업 후 3년 이내인 자참여자 지위:근로자 신분이 아닌 연수생 신분이며, 4대 사회보험 미적용 대상</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>부산광역시 청년희망정책과(☎. 051-120)</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>목돈 마련이 어려운 청년의 안정적인 주거지원을 위해 임차보증금 대출과 이자를 지원하여
-        청년의 주거생활 안정에 기여</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>사업기간 :'23. 2월 ~ 사업비 소진 시까지신청기간 :매월 1일 09:00 ~ 10일 18:00지원대상 :부산시 주민등록이 되어 있는 만19~34세 무주택 청년(신혼부부 제외)소득기준 : 본인(부부합산) 연소득 4천만원 이하※ 소득심사는 협약은행에서 별도 실시대상주택 : 임차보증금 2억원 이하이면서 전월세전환율 6.1%이하※ 건축물 대장상 주택이 아닌 곳은 불가※ 아파트를 제외한 주택유형의 경우 임대인이 신청일 기준 해당 주택 소유기간 3개월 미만인 경우, 보증신청 불가 등 협약은행 내규에 따라 협약은행에서 추가 심사 실시지원내용 :대출이자 연 2.0% 부산시 지원대출금리, 시 지원금리, 본인 부담금리에 대한 표대출금리시 지원금리본인 부담금리비고4.0%2.0%2.0%3.5%2.0%1.5%대출신청일 10.1. 이후대출취급은행 : 부산은행대출최대한도 : 1억원 이내(임차보증금의 90% 범위 내 → 나머지 본인 부담)* 실제 대출가능금액은 금융기관(한국주택금융공사, 부산은행) 제 규정에 따라 다르며, 부산시 자격요건에 해당되어 선정되더라도 부산은행과 한국주택금융공사에서 대출(보증)심사 및 신용평가, 소득심사는 별도 실시하며 그 결과에 따라 제외될 수 있음사업절차계약체결주택계약신청자신청 및 접수부산청년플랫폼  온라인 신청(매월 1~10일)신청자대상자 선정부산시 청년희망정책과(심사)부산시대상자 추천통보선정자, 부산은행 알림(매월말)부산시대출신청관련서류 부산은행 제출신청자대출실행 및 이차보전대출자격 평가 후 대출실행, 이차보전부산은행, 부산시월별 접수계획←→ 표를 가로로 스크롤 해주세요구분, 2월, 3월, 4월, 5월, 6월, 7월, 8월, 9월, 10월, 11월 접수계획에 대한 표구분2월3월4월5월6월신청기간2.1.~2.10.3.1.~3.10.4.1.~4.10.5.1.~5.10.6.1.~6.10.7월8월9월10월11월12월7.1.~7.10.8.1.~8.10.9.1.~9.10.10.1.~10.10.11.1.~11.10.12.1.~12.10.※ 유의사항12월 신청자에 대한 선정자 발표는 2024. 1. 5.(금) 예정신청시기 안내* 신규임차계약 : 잔금일 2024. 1. 15. ~ 2024. 1. 30.* 신규임차계약(대환) : 빠른날(잔금일, 전입일 중) 2023.10.16 ~ 2023.12.10* 갱신임차계약(대환) : 계약갱신일 2023.10.16 ~ 2023.12.10신청기간에는 주말·공휴일 관계없이 접수 가능공고문 유형별 신청시기(p4~5)를 반드시 참고해서 해당 월에 신청상기 신청기간은 사업비 소진에 따라 조기마감 될 수 있음</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>부산광역시 청년희망정책과(☎. 051-120)</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>부산광역시 청년희망정책과(☎. 051-120)</t>
+          <t>부산광역시 :051-888-7881</t>
         </is>
       </c>
     </row>
